--- a/Architectuur/io_overzicht.xlsx
+++ b/Architectuur/io_overzicht.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceria\Desktop\project22\Letterklok\Architectuur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E942F-6DCC-45D3-89D0-A3385E5C3C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867CD59-8120-4395-9D40-8292798D097E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{0EA3906E-6DFC-4677-9305-D9E60027F3CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0EA3906E-6DFC-4677-9305-D9E60027F3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
   <si>
     <t>Microcontroller ESP32-C3-DevKitM-1</t>
   </si>
@@ -199,9 +198,6 @@
   </si>
   <si>
     <t>Input Voltage</t>
-  </si>
-  <si>
-    <t>N/C</t>
   </si>
   <si>
     <t>RS-25-5 Power Supply</t>
@@ -310,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,13 +320,6 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -355,17 +344,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -423,16 +407,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,21 +425,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Titel" xfId="1" builtinId="15"/>
   </cellStyles>
@@ -544,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CFA7DA56-265F-4A2B-B695-5FBA61173F56}" name="Tabel5" displayName="Tabel5" ref="A48:C56" totalsRowShown="0">
-  <autoFilter ref="A48:C56" xr:uid="{CFA7DA56-265F-4A2B-B695-5FBA61173F56}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CFA7DA56-265F-4A2B-B695-5FBA61173F56}" name="Tabel5" displayName="Tabel5" ref="A48:C52" totalsRowShown="0">
+  <autoFilter ref="A48:C52" xr:uid="{CFA7DA56-265F-4A2B-B695-5FBA61173F56}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B93DC5EB-7388-49EC-8B8B-D2AFA35F8256}" name="Pin no"/>
     <tableColumn id="2" xr3:uid="{3978506E-3192-4AE8-8154-2E6499EFB4B0}" name="Name"/>
@@ -556,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6451E228-005E-48DE-A503-D86146D03CB2}" name="Tabel57" displayName="Tabel57" ref="A73:C77" totalsRowShown="0">
-  <autoFilter ref="A73:C77" xr:uid="{6451E228-005E-48DE-A503-D86146D03CB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6451E228-005E-48DE-A503-D86146D03CB2}" name="Tabel57" displayName="Tabel57" ref="A69:C73" totalsRowShown="0">
+  <autoFilter ref="A69:C73" xr:uid="{6451E228-005E-48DE-A503-D86146D03CB2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8DE09CD7-E997-4BFC-92DB-9985759AC713}" name="Pin no"/>
     <tableColumn id="2" xr3:uid="{B16A210E-6813-4863-A2E7-09AA4925D1F6}" name="Name"/>
@@ -568,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9AEFC6C2-9186-4539-BDFE-94C6DCE1334E}" name="Tabel578" displayName="Tabel578" ref="A83:C93" totalsRowShown="0">
-  <autoFilter ref="A83:C93" xr:uid="{9AEFC6C2-9186-4539-BDFE-94C6DCE1334E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9AEFC6C2-9186-4539-BDFE-94C6DCE1334E}" name="Tabel578" displayName="Tabel578" ref="A79:C89" totalsRowShown="0">
+  <autoFilter ref="A79:C89" xr:uid="{9AEFC6C2-9186-4539-BDFE-94C6DCE1334E}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{79F3FA83-E949-456B-9847-70E48DD9C11E}" name="Name"/>
     <tableColumn id="3" xr3:uid="{283EE5FB-C632-4CD0-8416-7618C7F813BD}" name="Description"/>
@@ -896,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C445EB8A-D6A3-46A8-B716-C03F1420A50C}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1599,10 +1576,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1621,242 +1598,242 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>1</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>2</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>3</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>4</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
         <v>5</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="12" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>2</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
-        <v>1</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
-        <v>4</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>5</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A82" s="2" t="s">
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>67</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84">
-        <v>3.3</v>
+        <v>77</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>46</v>
@@ -1864,10 +1841,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>46</v>
@@ -1875,56 +1852,12 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>46</v>
       </c>
     </row>
